--- a/Блокировки.xlsx
+++ b/Блокировки.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050A74E2-A0ED-4F04-89AA-9E104D821566}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64DAD304-31F1-4745-8DF4-2900390720FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="20700" windowHeight="11140" tabRatio="867" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -788,7 +788,7 @@
     <t>Глаголы несовершенного вида (за исключением некоторых случаев) и глаголы ЗАКЛАТЬ, ПОПРАТЬ, УСЛЫХАТЬ                                                                                                   НЕ образуют форму совместного действия.</t>
   </si>
   <si>
-    <t>Причастие прошедшего времени страдательное НЕ образуют глаголы на:
+    <t>Причастие прошедшего времени страдательное НЕ образуют глаголы на
 -АВАТЬ (кроме ИСПЛАВАТЬ, НАПЛАВАТЬ и на -ХАВАТЬ), 
 -ЕВАТЬ с предшествующей В, М, П, Р, С, Т, Щ,                                                                                                                                                                                                                               -ДЛЕВАТЬ, -ТЛЕВАТЬ, -ОДОЛЕВАТЬ, -РАЗЕВАТЬ,                        
 -ИВАТЬ,                                                 
@@ -1167,16 +1167,16 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1994,22 +1994,22 @@
       <c r="N6" s="45"/>
     </row>
     <row r="7" spans="1:14" ht="58" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="48" t="s">
         <v>100</v>
       </c>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
-      <c r="J7" s="51"/>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
-      <c r="M7" s="51"/>
-      <c r="N7" s="51"/>
+      <c r="B7" s="49"/>
+      <c r="C7" s="49"/>
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+      <c r="M7" s="49"/>
+      <c r="N7" s="49"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
@@ -2086,22 +2086,22 @@
       <c r="N10" s="45"/>
     </row>
     <row r="11" spans="1:14" ht="43.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="48" t="s">
         <v>154</v>
       </c>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
+      <c r="B11" s="49"/>
+      <c r="C11" s="49"/>
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
+      <c r="M11" s="49"/>
+      <c r="N11" s="49"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
@@ -2184,22 +2184,22 @@
       <c r="N14" s="45"/>
     </row>
     <row r="15" spans="1:14" ht="58" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="50" t="s">
+      <c r="A15" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
+      <c r="B15" s="49"/>
+      <c r="C15" s="49"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="49"/>
+      <c r="H15" s="49"/>
+      <c r="I15" s="49"/>
+      <c r="J15" s="49"/>
+      <c r="K15" s="49"/>
+      <c r="L15" s="49"/>
+      <c r="M15" s="49"/>
+      <c r="N15" s="49"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" s="1" t="s">
@@ -2322,22 +2322,22 @@
       <c r="N20" s="45"/>
     </row>
     <row r="21" spans="1:14" ht="57.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="50" t="s">
+      <c r="A21" s="48" t="s">
         <v>88</v>
       </c>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51"/>
-      <c r="D21" s="51"/>
-      <c r="E21" s="51"/>
-      <c r="F21" s="51"/>
-      <c r="G21" s="51"/>
-      <c r="H21" s="51"/>
-      <c r="I21" s="51"/>
-      <c r="J21" s="51"/>
-      <c r="K21" s="51"/>
-      <c r="L21" s="51"/>
-      <c r="M21" s="51"/>
-      <c r="N21" s="51"/>
+      <c r="B21" s="49"/>
+      <c r="C21" s="49"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
+      <c r="G21" s="49"/>
+      <c r="H21" s="49"/>
+      <c r="I21" s="49"/>
+      <c r="J21" s="49"/>
+      <c r="K21" s="49"/>
+      <c r="L21" s="49"/>
+      <c r="M21" s="49"/>
+      <c r="N21" s="49"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" s="1" t="s">
@@ -2498,22 +2498,22 @@
       <c r="N27" s="45"/>
     </row>
     <row r="28" spans="1:14" ht="43" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="50" t="s">
+      <c r="A28" s="48" t="s">
         <v>93</v>
       </c>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="51"/>
-      <c r="E28" s="51"/>
-      <c r="F28" s="51"/>
-      <c r="G28" s="51"/>
-      <c r="H28" s="51"/>
-      <c r="I28" s="51"/>
-      <c r="J28" s="51"/>
-      <c r="K28" s="51"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="51"/>
-      <c r="N28" s="51"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="49"/>
+      <c r="J28" s="49"/>
+      <c r="K28" s="49"/>
+      <c r="L28" s="49"/>
+      <c r="M28" s="49"/>
+      <c r="N28" s="49"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A29" s="1" t="s">
@@ -2568,22 +2568,22 @@
       <c r="N30" s="45"/>
     </row>
     <row r="31" spans="1:14" ht="57.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="48" t="s">
+      <c r="A31" s="50" t="s">
         <v>152</v>
       </c>
-      <c r="B31" s="49"/>
-      <c r="C31" s="49"/>
-      <c r="D31" s="49"/>
-      <c r="E31" s="49"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="49"/>
-      <c r="H31" s="49"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="49"/>
-      <c r="K31" s="49"/>
-      <c r="L31" s="49"/>
-      <c r="M31" s="49"/>
-      <c r="N31" s="49"/>
+      <c r="B31" s="51"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="51"/>
+      <c r="N31" s="51"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A32" s="1" t="s">
@@ -2716,22 +2716,22 @@
       <c r="N35" s="45"/>
     </row>
     <row r="36" spans="1:14" ht="117" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="48" t="s">
+      <c r="A36" s="50" t="s">
         <v>156</v>
       </c>
-      <c r="B36" s="49"/>
-      <c r="C36" s="49"/>
-      <c r="D36" s="49"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="49"/>
-      <c r="H36" s="49"/>
-      <c r="I36" s="49"/>
-      <c r="J36" s="49"/>
-      <c r="K36" s="49"/>
-      <c r="L36" s="49"/>
-      <c r="M36" s="49"/>
-      <c r="N36" s="49"/>
+      <c r="B36" s="51"/>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="51"/>
+      <c r="L36" s="51"/>
+      <c r="M36" s="51"/>
+      <c r="N36" s="51"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A37" s="12" t="s">
@@ -2883,22 +2883,22 @@
       <c r="N41" s="45"/>
     </row>
     <row r="42" spans="1:14" ht="73.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="50" t="s">
+      <c r="A42" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="B42" s="51"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51"/>
-      <c r="E42" s="51"/>
-      <c r="F42" s="51"/>
-      <c r="G42" s="51"/>
-      <c r="H42" s="51"/>
-      <c r="I42" s="51"/>
-      <c r="J42" s="51"/>
-      <c r="K42" s="51"/>
-      <c r="L42" s="51"/>
-      <c r="M42" s="51"/>
-      <c r="N42" s="51"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="49"/>
+      <c r="D42" s="49"/>
+      <c r="E42" s="49"/>
+      <c r="F42" s="49"/>
+      <c r="G42" s="49"/>
+      <c r="H42" s="49"/>
+      <c r="I42" s="49"/>
+      <c r="J42" s="49"/>
+      <c r="K42" s="49"/>
+      <c r="L42" s="49"/>
+      <c r="M42" s="49"/>
+      <c r="N42" s="49"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
@@ -3137,11 +3137,15 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A42:N42"/>
-    <mergeCell ref="A41:N41"/>
-    <mergeCell ref="A48:N48"/>
-    <mergeCell ref="A47:N47"/>
-    <mergeCell ref="A36:N36"/>
+    <mergeCell ref="A31:N31"/>
+    <mergeCell ref="A30:N30"/>
+    <mergeCell ref="A35:N35"/>
+    <mergeCell ref="A21:N21"/>
+    <mergeCell ref="A20:N20"/>
+    <mergeCell ref="A24:N24"/>
+    <mergeCell ref="A23:N23"/>
+    <mergeCell ref="A28:N28"/>
+    <mergeCell ref="A27:N27"/>
     <mergeCell ref="A18:N18"/>
     <mergeCell ref="A3:N3"/>
     <mergeCell ref="A2:N2"/>
@@ -3152,15 +3156,11 @@
     <mergeCell ref="A15:N15"/>
     <mergeCell ref="A14:N14"/>
     <mergeCell ref="A17:N17"/>
-    <mergeCell ref="A31:N31"/>
-    <mergeCell ref="A30:N30"/>
-    <mergeCell ref="A35:N35"/>
-    <mergeCell ref="A21:N21"/>
-    <mergeCell ref="A20:N20"/>
-    <mergeCell ref="A24:N24"/>
-    <mergeCell ref="A23:N23"/>
-    <mergeCell ref="A28:N28"/>
-    <mergeCell ref="A27:N27"/>
+    <mergeCell ref="A42:N42"/>
+    <mergeCell ref="A41:N41"/>
+    <mergeCell ref="A48:N48"/>
+    <mergeCell ref="A47:N47"/>
+    <mergeCell ref="A36:N36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
